--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920700.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920700.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF27F6A-3A77-4F63-BF12-E83CFE43D942}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7700064E-3EA8-429C-81ED-D077417B3D33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T074232.015" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T063258.556" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="204">
   <si>
     <t>Do Ty</t>
   </si>
@@ -377,6 +377,249 @@
   </si>
   <si>
     <t>050.012-23.57008604</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001621</t>
+  </si>
+  <si>
+    <t>FEDEX/REFEX</t>
+  </si>
+  <si>
+    <t>050.001-24.83093345</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001622</t>
+  </si>
+  <si>
+    <t>050.001-24.83093346</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001623</t>
+  </si>
+  <si>
+    <t>050.001-24.83097863</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001624</t>
+  </si>
+  <si>
+    <t>050.001-24.83097864</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001626</t>
+  </si>
+  <si>
+    <t>050.012-23.31139752</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001627</t>
+  </si>
+  <si>
+    <t>050.012-23.31093474</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001628</t>
+  </si>
+  <si>
+    <t>050.012-23.31151996</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001629</t>
+  </si>
+  <si>
+    <t>050.012-23.31151997</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001630</t>
+  </si>
+  <si>
+    <t>050.012-23.31151998</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001631</t>
+  </si>
+  <si>
+    <t>050.012-23.31160188</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001633</t>
+  </si>
+  <si>
+    <t>050.012-23.31164812</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001634</t>
+  </si>
+  <si>
+    <t>050.012-23.31164813</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001635</t>
+  </si>
+  <si>
+    <t>050.012-23.31164814</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001637</t>
+  </si>
+  <si>
+    <t>050.012-23.31176446</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001638</t>
+  </si>
+  <si>
+    <t>050.012-23.31176447</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001640</t>
+  </si>
+  <si>
+    <t>050.001-24.83104983</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001641</t>
+  </si>
+  <si>
+    <t>050.001-24.83104984</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001642</t>
+  </si>
+  <si>
+    <t>050.001-24.83110941</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001643</t>
+  </si>
+  <si>
+    <t>050.001-24.83114312</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001644</t>
+  </si>
+  <si>
+    <t>050.001-24.83114313</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001647</t>
+  </si>
+  <si>
+    <t>050.003-24.57189300</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001648</t>
+  </si>
+  <si>
+    <t>BESTINDO EXPRESS</t>
+  </si>
+  <si>
+    <t>BST-BBS/COURIR/0026/12/23</t>
+  </si>
+  <si>
+    <t>051.004-24.66402213</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001674</t>
+  </si>
+  <si>
+    <t>BIROTIKA SEMESTA PT. ( DHL )</t>
+  </si>
+  <si>
+    <t>BDOIR00038452</t>
+  </si>
+  <si>
+    <t>050.012-23.89158186</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001675</t>
+  </si>
+  <si>
+    <t>BDOIR00038687</t>
+  </si>
+  <si>
+    <t>050.012-23.89186310</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001680</t>
+  </si>
+  <si>
+    <t>BDOR002393006</t>
+  </si>
+  <si>
+    <t>050.009-23.30467598</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001683</t>
+  </si>
+  <si>
+    <t>BDOR002396743</t>
+  </si>
+  <si>
+    <t>050.012-23.89154922</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001685</t>
+  </si>
+  <si>
+    <t>BDOR002402034</t>
+  </si>
+  <si>
+    <t>050.012-23.89163145</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001686</t>
+  </si>
+  <si>
+    <t>BDOR002408292</t>
+  </si>
+  <si>
+    <t>050.012-23.89172839</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001687</t>
+  </si>
+  <si>
+    <t>BDOR002414474</t>
+  </si>
+  <si>
+    <t>050.012-23.89182641</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001688</t>
+  </si>
+  <si>
+    <t>BDOR002424425</t>
+  </si>
+  <si>
+    <t>050.003-24.37398217</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001726</t>
+  </si>
+  <si>
+    <t>PT.NUSANTARA SATRIA AGUNG</t>
+  </si>
+  <si>
+    <t>NSA-2024-0393</t>
+  </si>
+  <si>
+    <t>041.005-24.17521620</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001728</t>
+  </si>
+  <si>
+    <t>NSA-2024-0505</t>
+  </si>
+  <si>
+    <t>040.005-24.17521732</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001729</t>
+  </si>
+  <si>
+    <t>050.003-24.57190576</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1231,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ22"/>
+  <dimension ref="A1:AZ55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3623,59 +3866,4382 @@
       </c>
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>24001621</v>
+      </c>
+      <c r="D19">
+        <v>1201</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45341</v>
+      </c>
       <c r="F19" t="s">
         <v>119</v>
       </c>
       <c r="G19">
-        <v>71.38</v>
+        <v>14.6</v>
       </c>
       <c r="H19">
-        <v>71.38</v>
+        <v>14.6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
       </c>
       <c r="L19" s="2">
-        <v>1127594</v>
+        <v>230662</v>
       </c>
       <c r="N19" s="2">
-        <v>1127594</v>
+        <v>230662</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19">
+        <v>15803</v>
+      </c>
+      <c r="T19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19">
+        <v>2103755</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19">
+        <v>54000374</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL19">
+        <v>870128687</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>45294</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP19">
+        <v>1201</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX19">
+        <v>24001201</v>
+      </c>
+      <c r="AY19">
+        <v>920700</v>
+      </c>
+      <c r="AZ19">
+        <v>1201.9206999999999</v>
       </c>
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>24001622</v>
+      </c>
+      <c r="D20">
+        <v>1201</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45341</v>
+      </c>
       <c r="F20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20">
+        <v>0.68</v>
+      </c>
+      <c r="H20">
+        <v>0.68</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="2">
+        <v>10722</v>
+      </c>
+      <c r="N20" s="2">
+        <v>10722</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20">
+        <v>15803</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>60</v>
+      </c>
+      <c r="W20" t="s">
+        <v>61</v>
+      </c>
+      <c r="X20">
+        <v>2103755</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI20">
+        <v>54000374</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>120</v>
       </c>
-      <c r="G20">
-        <v>71.38</v>
-      </c>
-      <c r="H20">
-        <v>71.38</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1127594</v>
-      </c>
-      <c r="N20" s="2">
-        <v>1127594</v>
+      <c r="AL20">
+        <v>870128688</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>45294</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP20">
+        <v>1201</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX20">
+        <v>24001201</v>
+      </c>
+      <c r="AY20">
+        <v>920700</v>
+      </c>
+      <c r="AZ20">
+        <v>1201.9206999999999</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>24001623</v>
+      </c>
+      <c r="D21">
+        <v>1201</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45341</v>
+      </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G21">
-        <v>71.38</v>
+        <v>0.36</v>
       </c>
       <c r="H21">
-        <v>71.38</v>
+        <v>0.36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
       </c>
       <c r="L21" s="2">
-        <v>1127594</v>
+        <v>5756</v>
       </c>
       <c r="N21" s="2">
-        <v>1127594</v>
+        <v>5756</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21">
+        <v>15803</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21">
+        <v>2103755</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI21">
+        <v>54000374</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL21">
+        <v>870138342</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>45296</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP21">
+        <v>1201</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX21">
+        <v>24001201</v>
+      </c>
+      <c r="AY21">
+        <v>920700</v>
+      </c>
+      <c r="AZ21">
+        <v>1201.9206999999999</v>
       </c>
     </row>
     <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>24001624</v>
+      </c>
+      <c r="D22">
+        <v>1201</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45341</v>
+      </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="G22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H22">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="2">
+        <v>35334</v>
+      </c>
+      <c r="N22" s="2">
+        <v>35334</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22">
+        <v>15803</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22">
+        <v>2103755</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI22">
+        <v>54000374</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL22">
+        <v>870138343</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>45296</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP22">
+        <v>1201</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX22">
+        <v>24001201</v>
+      </c>
+      <c r="AY22">
+        <v>920700</v>
+      </c>
+      <c r="AZ22">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>24001626</v>
+      </c>
+      <c r="D23">
+        <v>1201</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23">
+        <v>0.63</v>
+      </c>
+      <c r="H23">
+        <v>0.63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="2">
+        <v>9879</v>
+      </c>
+      <c r="N23" s="2">
+        <v>9879</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23">
+        <v>15803</v>
+      </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>60</v>
+      </c>
+      <c r="W23" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23">
+        <v>2103755</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI23">
+        <v>54000374</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL23">
+        <v>870048771</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>45632</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP23">
+        <v>1201</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX23">
+        <v>24001201</v>
+      </c>
+      <c r="AY23">
+        <v>920700</v>
+      </c>
+      <c r="AZ23">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>24001627</v>
+      </c>
+      <c r="D24">
+        <v>1201</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24">
+        <v>0.85</v>
+      </c>
+      <c r="H24">
+        <v>0.85</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="2">
+        <v>13396</v>
+      </c>
+      <c r="N24" s="2">
+        <v>13396</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24">
+        <v>15803</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24">
+        <v>2103755</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI24">
+        <v>54000374</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL24">
+        <v>869971222</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>45238</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP24">
+        <v>1201</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX24">
+        <v>24001201</v>
+      </c>
+      <c r="AY24">
+        <v>920700</v>
+      </c>
+      <c r="AZ24">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>24001628</v>
+      </c>
+      <c r="D25">
+        <v>1201</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25">
+        <v>4.54</v>
+      </c>
+      <c r="H25">
+        <v>4.54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="2">
+        <v>71808</v>
+      </c>
+      <c r="N25" s="2">
+        <v>71808</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25">
+        <v>15803</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25">
+        <v>2103755</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI25">
+        <v>54000374</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL25">
+        <v>870069727</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>45273</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP25">
+        <v>1201</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX25">
+        <v>24001201</v>
+      </c>
+      <c r="AY25">
+        <v>920700</v>
+      </c>
+      <c r="AZ25">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>24001629</v>
+      </c>
+      <c r="D26">
+        <v>1201</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26">
+        <v>0.18</v>
+      </c>
+      <c r="H26">
+        <v>0.18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2871</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2871</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26">
+        <v>15803</v>
+      </c>
+      <c r="T26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26">
+        <v>2103755</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI26">
+        <v>54000374</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL26">
+        <v>870069728</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>45273</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP26">
+        <v>1201</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX26">
+        <v>24001201</v>
+      </c>
+      <c r="AY26">
+        <v>920700</v>
+      </c>
+      <c r="AZ26">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>24001630</v>
+      </c>
+      <c r="D27">
+        <v>1201</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27">
+        <v>0.23</v>
+      </c>
+      <c r="H27">
+        <v>0.23</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="2">
+        <v>3614</v>
+      </c>
+      <c r="N27" s="2">
+        <v>3614</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S27">
+        <v>15803</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27">
+        <v>2103755</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI27">
+        <v>54000374</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL27">
+        <v>870072442</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>45273</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP27">
+        <v>1201</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX27">
+        <v>24001201</v>
+      </c>
+      <c r="AY27">
+        <v>920700</v>
+      </c>
+      <c r="AZ27">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>24001631</v>
+      </c>
+      <c r="D28">
+        <v>1201</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2200</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2200</v>
+      </c>
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
+      <c r="S28">
+        <v>15803</v>
+      </c>
+      <c r="T28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28">
+        <v>2103755</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI28">
+        <v>54000374</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL28">
+        <v>870085656</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>45278</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP28">
+        <v>1201</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX28">
+        <v>24001201</v>
+      </c>
+      <c r="AY28">
+        <v>920700</v>
+      </c>
+      <c r="AZ28">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>24001633</v>
+      </c>
+      <c r="D29">
+        <v>1201</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29">
+        <v>13.63</v>
+      </c>
+      <c r="H29">
+        <v>13.63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" s="2">
+        <v>215394</v>
+      </c>
+      <c r="N29" s="2">
+        <v>215394</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" t="s">
+        <v>57</v>
+      </c>
+      <c r="S29">
+        <v>15803</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29">
+        <v>2103755</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI29">
+        <v>54000374</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL29">
+        <v>870091402</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>45280</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP29">
+        <v>1201</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX29">
+        <v>24001201</v>
+      </c>
+      <c r="AY29">
+        <v>920700</v>
+      </c>
+      <c r="AZ29">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>24001634</v>
+      </c>
+      <c r="D30">
+        <v>1201</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30">
+        <v>3.11</v>
+      </c>
+      <c r="H30">
+        <v>3.11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="2">
+        <v>49129</v>
+      </c>
+      <c r="N30" s="2">
+        <v>49129</v>
+      </c>
+      <c r="O30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30">
+        <v>15803</v>
+      </c>
+      <c r="T30" t="s">
+        <v>58</v>
+      </c>
+      <c r="U30" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30">
+        <v>2103755</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI30">
+        <v>54000374</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL30">
+        <v>870091403</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>45280</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP30">
+        <v>1201</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX30">
+        <v>24001201</v>
+      </c>
+      <c r="AY30">
+        <v>920700</v>
+      </c>
+      <c r="AZ30">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>24001635</v>
+      </c>
+      <c r="D31">
+        <v>1201</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31">
+        <v>0.46</v>
+      </c>
+      <c r="H31">
+        <v>0.46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="2">
+        <v>7295</v>
+      </c>
+      <c r="N31" s="2">
+        <v>7295</v>
+      </c>
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" t="s">
+        <v>57</v>
+      </c>
+      <c r="S31">
+        <v>15803</v>
+      </c>
+      <c r="T31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" t="s">
+        <v>59</v>
+      </c>
+      <c r="V31" t="s">
+        <v>60</v>
+      </c>
+      <c r="W31" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31">
+        <v>2103755</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI31">
+        <v>54000374</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL31">
+        <v>870093989</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>45280</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP31">
+        <v>1201</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX31">
+        <v>24001201</v>
+      </c>
+      <c r="AY31">
+        <v>920700</v>
+      </c>
+      <c r="AZ31">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>24001637</v>
+      </c>
+      <c r="D32">
+        <v>1201</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G32">
+        <v>0.44</v>
+      </c>
+      <c r="H32">
+        <v>0.44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="2">
+        <v>6961</v>
+      </c>
+      <c r="N32" s="2">
+        <v>6961</v>
+      </c>
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" t="s">
+        <v>57</v>
+      </c>
+      <c r="S32">
+        <v>15803</v>
+      </c>
+      <c r="T32" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32">
+        <v>2103755</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI32">
+        <v>54000374</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL32">
+        <v>870111817</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>45287</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP32">
+        <v>1201</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX32">
+        <v>24001201</v>
+      </c>
+      <c r="AY32">
+        <v>920700</v>
+      </c>
+      <c r="AZ32">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>24001638</v>
+      </c>
+      <c r="D33">
+        <v>1201</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33">
+        <v>1.48</v>
+      </c>
+      <c r="H33">
+        <v>1.48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="2">
+        <v>23339</v>
+      </c>
+      <c r="N33" s="2">
+        <v>23339</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" t="s">
+        <v>57</v>
+      </c>
+      <c r="S33">
+        <v>15803</v>
+      </c>
+      <c r="T33" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" t="s">
+        <v>60</v>
+      </c>
+      <c r="W33" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33">
+        <v>2103755</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI33">
+        <v>54000374</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL33">
+        <v>870111818</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>45287</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP33">
+        <v>1201</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX33">
+        <v>24001201</v>
+      </c>
+      <c r="AY33">
+        <v>920700</v>
+      </c>
+      <c r="AZ33">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>24001640</v>
+      </c>
+      <c r="D34">
+        <v>1201</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34">
+        <v>17.72</v>
+      </c>
+      <c r="H34">
+        <v>17.72</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="2">
+        <v>279973</v>
+      </c>
+      <c r="N34" s="2">
+        <v>279973</v>
+      </c>
+      <c r="O34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" t="s">
+        <v>57</v>
+      </c>
+      <c r="S34">
+        <v>15803</v>
+      </c>
+      <c r="T34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34">
+        <v>2103857</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI34">
+        <v>54000374</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL34">
+        <v>870148463</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP34">
+        <v>1201</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX34">
+        <v>24001201</v>
+      </c>
+      <c r="AY34">
+        <v>920700</v>
+      </c>
+      <c r="AZ34">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>24001641</v>
+      </c>
+      <c r="D35">
+        <v>1201</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F35" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="2">
+        <v>34775</v>
+      </c>
+      <c r="N35" s="2">
+        <v>34775</v>
+      </c>
+      <c r="O35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S35">
+        <v>15803</v>
+      </c>
+      <c r="T35" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35" t="s">
+        <v>60</v>
+      </c>
+      <c r="W35" t="s">
+        <v>61</v>
+      </c>
+      <c r="X35">
+        <v>2103857</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI35">
+        <v>54000374</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL35">
+        <v>870148464</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP35">
+        <v>1201</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX35">
+        <v>24001201</v>
+      </c>
+      <c r="AY35">
+        <v>920700</v>
+      </c>
+      <c r="AZ35">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>24001642</v>
+      </c>
+      <c r="D36">
+        <v>1201</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G36">
+        <v>0.37</v>
+      </c>
+      <c r="H36">
+        <v>0.37</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="2">
+        <v>5788</v>
+      </c>
+      <c r="N36" s="2">
+        <v>5788</v>
+      </c>
+      <c r="O36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36">
+        <v>15803</v>
+      </c>
+      <c r="T36" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" t="s">
+        <v>60</v>
+      </c>
+      <c r="W36" t="s">
+        <v>61</v>
+      </c>
+      <c r="X36">
+        <v>2103857</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI36">
+        <v>54000374</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL36">
+        <v>870159593</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>45306</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP36">
+        <v>1201</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX36">
+        <v>24001201</v>
+      </c>
+      <c r="AY36">
+        <v>920700</v>
+      </c>
+      <c r="AZ36">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>24001643</v>
+      </c>
+      <c r="D37">
+        <v>1201</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37">
+        <v>1.92</v>
+      </c>
+      <c r="H37">
+        <v>1.92</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="2">
+        <v>30408</v>
+      </c>
+      <c r="N37" s="2">
+        <v>30408</v>
+      </c>
+      <c r="O37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>56</v>
+      </c>
+      <c r="R37" t="s">
+        <v>57</v>
+      </c>
+      <c r="S37">
+        <v>15803</v>
+      </c>
+      <c r="T37" t="s">
+        <v>58</v>
+      </c>
+      <c r="U37" t="s">
+        <v>59</v>
+      </c>
+      <c r="V37" t="s">
+        <v>60</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
+      </c>
+      <c r="X37">
+        <v>2103857</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI37">
+        <v>54000374</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL37">
+        <v>870163300</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>45308</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP37">
+        <v>1201</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX37">
+        <v>24001201</v>
+      </c>
+      <c r="AY37">
+        <v>920700</v>
+      </c>
+      <c r="AZ37">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>24001644</v>
+      </c>
+      <c r="D38">
+        <v>1201</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F38" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38">
+        <v>2.34</v>
+      </c>
+      <c r="H38">
+        <v>2.34</v>
+      </c>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="2">
+        <v>36954</v>
+      </c>
+      <c r="N38" s="2">
+        <v>36954</v>
+      </c>
+      <c r="O38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>56</v>
+      </c>
+      <c r="R38" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38">
+        <v>15803</v>
+      </c>
+      <c r="T38" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" t="s">
+        <v>60</v>
+      </c>
+      <c r="W38" t="s">
+        <v>61</v>
+      </c>
+      <c r="X38">
+        <v>2103857</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>45341</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI38">
+        <v>54000374</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL38">
+        <v>870163301</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>45308</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP38">
+        <v>1201</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX38">
+        <v>24001201</v>
+      </c>
+      <c r="AY38">
+        <v>920700</v>
+      </c>
+      <c r="AZ38">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>24001647</v>
+      </c>
+      <c r="D39">
+        <v>1201</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39">
+        <v>1.68</v>
+      </c>
+      <c r="H39">
+        <v>1.68</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="2">
+        <v>26558</v>
+      </c>
+      <c r="N39" s="2">
+        <v>26558</v>
+      </c>
+      <c r="O39" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39">
+        <v>15803</v>
+      </c>
+      <c r="T39" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" t="s">
+        <v>59</v>
+      </c>
+      <c r="V39" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" t="s">
+        <v>61</v>
+      </c>
+      <c r="X39">
+        <v>2104089</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI39">
+        <v>55737819</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL39">
+        <v>61013023986800</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>45335</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP39">
+        <v>1201</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX39">
+        <v>24001218</v>
+      </c>
+      <c r="AY39">
+        <v>920700</v>
+      </c>
+      <c r="AZ39">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>24001648</v>
+      </c>
+      <c r="D40">
+        <v>1201</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40">
+        <v>0.25</v>
+      </c>
+      <c r="H40">
+        <v>0.25</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="2">
+        <v>3878</v>
+      </c>
+      <c r="N40" s="2">
+        <v>3878</v>
+      </c>
+      <c r="O40" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40">
+        <v>15803</v>
+      </c>
+      <c r="T40" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" t="s">
+        <v>59</v>
+      </c>
+      <c r="V40" t="s">
+        <v>60</v>
+      </c>
+      <c r="W40" t="s">
+        <v>61</v>
+      </c>
+      <c r="X40">
+        <v>2104096</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI40">
+        <v>57394362</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>45293</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP40">
+        <v>1201</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX40">
+        <v>24001144</v>
+      </c>
+      <c r="AY40">
+        <v>920700</v>
+      </c>
+      <c r="AZ40">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>24001674</v>
+      </c>
+      <c r="D41">
+        <v>1201</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41">
+        <v>3.65</v>
+      </c>
+      <c r="H41">
+        <v>3.65</v>
+      </c>
+      <c r="I41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="2">
+        <v>57638</v>
+      </c>
+      <c r="N41" s="2">
+        <v>57638</v>
+      </c>
+      <c r="O41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41">
+        <v>15803</v>
+      </c>
+      <c r="T41" t="s">
+        <v>58</v>
+      </c>
+      <c r="U41" t="s">
+        <v>59</v>
+      </c>
+      <c r="V41" t="s">
+        <v>60</v>
+      </c>
+      <c r="W41" t="s">
+        <v>61</v>
+      </c>
+      <c r="X41">
+        <v>2104454</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI41">
+        <v>54000160</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>168</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>45265</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP41">
+        <v>1201</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX41">
+        <v>24001228</v>
+      </c>
+      <c r="AY41">
+        <v>920700</v>
+      </c>
+      <c r="AZ41">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>24001675</v>
+      </c>
+      <c r="D42">
+        <v>1201</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42">
+        <v>1.19</v>
+      </c>
+      <c r="H42">
+        <v>1.19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" s="2">
+        <v>18846</v>
+      </c>
+      <c r="N42" s="2">
+        <v>18846</v>
+      </c>
+      <c r="O42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42">
+        <v>15803</v>
+      </c>
+      <c r="T42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" t="s">
+        <v>59</v>
+      </c>
+      <c r="V42" t="s">
+        <v>60</v>
+      </c>
+      <c r="W42" t="s">
+        <v>61</v>
+      </c>
+      <c r="X42">
+        <v>2104454</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI42">
+        <v>54000160</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>171</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>45286</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP42">
+        <v>1201</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX42">
+        <v>24001228</v>
+      </c>
+      <c r="AY42">
+        <v>920700</v>
+      </c>
+      <c r="AZ42">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>24001680</v>
+      </c>
+      <c r="D43">
+        <v>1201</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F43" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43">
+        <v>0.82</v>
+      </c>
+      <c r="H43">
+        <v>0.82</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="2">
+        <v>12957</v>
+      </c>
+      <c r="N43" s="2">
+        <v>12957</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43">
+        <v>15803</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" t="s">
+        <v>60</v>
+      </c>
+      <c r="W43" t="s">
+        <v>61</v>
+      </c>
+      <c r="X43">
+        <v>2104454</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI43">
+        <v>54000160</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>45260</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP43">
+        <v>1201</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX43">
+        <v>24001228</v>
+      </c>
+      <c r="AY43">
+        <v>920700</v>
+      </c>
+      <c r="AZ43">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44">
+        <v>24001683</v>
+      </c>
+      <c r="D44">
+        <v>1201</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F44" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44">
+        <v>0.19</v>
+      </c>
+      <c r="H44">
+        <v>0.19</v>
+      </c>
+      <c r="I44" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2935</v>
+      </c>
+      <c r="N44" s="2">
+        <v>2935</v>
+      </c>
+      <c r="O44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44">
+        <v>15803</v>
+      </c>
+      <c r="T44" t="s">
+        <v>58</v>
+      </c>
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44" t="s">
+        <v>60</v>
+      </c>
+      <c r="W44" t="s">
+        <v>61</v>
+      </c>
+      <c r="X44">
+        <v>2104454</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI44">
+        <v>54000160</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>45265</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP44">
+        <v>1201</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX44">
+        <v>24001228</v>
+      </c>
+      <c r="AY44">
+        <v>920700</v>
+      </c>
+      <c r="AZ44">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>24001685</v>
+      </c>
+      <c r="D45">
+        <v>1201</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F45" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="2">
+        <v>47476</v>
+      </c>
+      <c r="N45" s="2">
+        <v>47476</v>
+      </c>
+      <c r="O45" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>56</v>
+      </c>
+      <c r="R45" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45">
+        <v>15803</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" t="s">
+        <v>59</v>
+      </c>
+      <c r="V45" t="s">
+        <v>60</v>
+      </c>
+      <c r="W45" t="s">
+        <v>61</v>
+      </c>
+      <c r="X45">
+        <v>2104454</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI45">
+        <v>54000160</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>45272</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP45">
+        <v>1201</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX45">
+        <v>24001228</v>
+      </c>
+      <c r="AY45">
+        <v>920700</v>
+      </c>
+      <c r="AZ45">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>24001686</v>
+      </c>
+      <c r="D46">
+        <v>1201</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G46">
+        <v>0.18</v>
+      </c>
+      <c r="H46">
+        <v>0.18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="2">
+        <v>2891</v>
+      </c>
+      <c r="N46" s="2">
+        <v>2891</v>
+      </c>
+      <c r="O46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" t="s">
+        <v>57</v>
+      </c>
+      <c r="S46">
+        <v>15803</v>
+      </c>
+      <c r="T46" t="s">
+        <v>58</v>
+      </c>
+      <c r="U46" t="s">
+        <v>59</v>
+      </c>
+      <c r="V46" t="s">
+        <v>60</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X46">
+        <v>2104454</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI46">
+        <v>54000160</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>45279</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP46">
+        <v>1201</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX46">
+        <v>24001228</v>
+      </c>
+      <c r="AY46">
+        <v>920700</v>
+      </c>
+      <c r="AZ46">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47">
+        <v>24001687</v>
+      </c>
+      <c r="D47">
+        <v>1201</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F47" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47">
+        <v>0.18</v>
+      </c>
+      <c r="H47">
+        <v>0.18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="2">
+        <v>2891</v>
+      </c>
+      <c r="N47" s="2">
+        <v>2891</v>
+      </c>
+      <c r="O47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>56</v>
+      </c>
+      <c r="R47" t="s">
+        <v>57</v>
+      </c>
+      <c r="S47">
+        <v>15803</v>
+      </c>
+      <c r="T47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U47" t="s">
+        <v>59</v>
+      </c>
+      <c r="V47" t="s">
+        <v>60</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
+      </c>
+      <c r="X47">
+        <v>2104454</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI47">
+        <v>54000160</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>45286</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP47">
+        <v>1201</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX47">
+        <v>24001228</v>
+      </c>
+      <c r="AY47">
+        <v>920700</v>
+      </c>
+      <c r="AZ47">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48">
+        <v>24001688</v>
+      </c>
+      <c r="D48">
+        <v>1201</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F48" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48">
+        <v>0.83</v>
+      </c>
+      <c r="H48">
+        <v>0.83</v>
+      </c>
+      <c r="I48" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="2">
+        <v>13174</v>
+      </c>
+      <c r="N48" s="2">
+        <v>13174</v>
+      </c>
+      <c r="O48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>56</v>
+      </c>
+      <c r="R48" t="s">
+        <v>57</v>
+      </c>
+      <c r="S48">
+        <v>15803</v>
+      </c>
+      <c r="T48" t="s">
+        <v>58</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>60</v>
+      </c>
+      <c r="W48" t="s">
+        <v>61</v>
+      </c>
+      <c r="X48">
+        <v>2104454</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>45343</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI48">
+        <v>54000160</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>45300</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP48">
+        <v>1201</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX48">
+        <v>24001228</v>
+      </c>
+      <c r="AY48">
+        <v>920700</v>
+      </c>
+      <c r="AZ48">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>24001726</v>
+      </c>
+      <c r="D49">
+        <v>1201</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F49" t="s">
+        <v>191</v>
+      </c>
+      <c r="G49">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="H49">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="I49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" s="2">
+        <v>294651</v>
+      </c>
+      <c r="N49" s="2">
+        <v>294651</v>
+      </c>
+      <c r="O49" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>56</v>
+      </c>
+      <c r="R49" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49">
+        <v>15803</v>
+      </c>
+      <c r="T49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>60</v>
+      </c>
+      <c r="W49" t="s">
+        <v>61</v>
+      </c>
+      <c r="X49">
+        <v>2105254</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA49">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI49">
+        <v>55417891</v>
+      </c>
+      <c r="AJ49" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>45323</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP49">
+        <v>1201</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX49">
+        <v>24001247</v>
+      </c>
+      <c r="AY49">
+        <v>920700</v>
+      </c>
+      <c r="AZ49">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50">
+        <v>24001728</v>
+      </c>
+      <c r="D50">
+        <v>1201</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G50">
+        <v>0.17</v>
+      </c>
+      <c r="H50">
+        <v>0.17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="2">
+        <v>2634</v>
+      </c>
+      <c r="N50" s="2">
+        <v>2634</v>
+      </c>
+      <c r="O50" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>56</v>
+      </c>
+      <c r="R50" t="s">
+        <v>57</v>
+      </c>
+      <c r="S50">
+        <v>15803</v>
+      </c>
+      <c r="T50" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>60</v>
+      </c>
+      <c r="W50" t="s">
+        <v>61</v>
+      </c>
+      <c r="X50">
+        <v>2105317</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI50">
+        <v>55417891</v>
+      </c>
+      <c r="AJ50" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP50">
+        <v>1201</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX50">
+        <v>24001246</v>
+      </c>
+      <c r="AY50">
+        <v>920700</v>
+      </c>
+      <c r="AZ50">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>24001729</v>
+      </c>
+      <c r="D51">
+        <v>1201</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F51" t="s">
+        <v>198</v>
+      </c>
+      <c r="G51">
+        <v>1.65</v>
+      </c>
+      <c r="H51">
+        <v>1.65</v>
+      </c>
+      <c r="I51" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" s="2">
+        <v>26092</v>
+      </c>
+      <c r="N51" s="2">
+        <v>26092</v>
+      </c>
+      <c r="O51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>56</v>
+      </c>
+      <c r="R51" t="s">
+        <v>57</v>
+      </c>
+      <c r="S51">
+        <v>15803</v>
+      </c>
+      <c r="T51" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>60</v>
+      </c>
+      <c r="W51" t="s">
+        <v>61</v>
+      </c>
+      <c r="X51">
+        <v>2105318</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>45345</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI51">
+        <v>55737819</v>
+      </c>
+      <c r="AJ51" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL51">
+        <v>61011038675300</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP51">
+        <v>1201</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX51">
+        <v>24001255</v>
+      </c>
+      <c r="AY51">
+        <v>920700</v>
+      </c>
+      <c r="AZ51">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52">
+        <v>171.94</v>
+      </c>
+      <c r="H52">
+        <v>171.94</v>
+      </c>
+      <c r="L52" s="2">
+        <v>2716473</v>
+      </c>
+      <c r="N52" s="2">
+        <v>2716473</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>201</v>
+      </c>
+      <c r="G53">
+        <v>171.94</v>
+      </c>
+      <c r="H53">
+        <v>171.94</v>
+      </c>
+      <c r="L53" s="2">
+        <v>2716473</v>
+      </c>
+      <c r="N53" s="2">
+        <v>2716473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54">
+        <v>171.94</v>
+      </c>
+      <c r="H54">
+        <v>171.94</v>
+      </c>
+      <c r="L54" s="2">
+        <v>2716473</v>
+      </c>
+      <c r="N54" s="2">
+        <v>2716473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920700.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920700.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7700064E-3EA8-429C-81ED-D077417B3D33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3289659B-5F3C-4C68-AA6F-5F01F5D23BDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T063258.556" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T063446.117" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="219">
   <si>
     <t>Do Ty</t>
   </si>
@@ -620,6 +620,51 @@
   </si>
   <si>
     <t>050.003-24.57190576</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001737</t>
+  </si>
+  <si>
+    <t>IV10032777</t>
+  </si>
+  <si>
+    <t>050.012-23.57008643</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001742</t>
+  </si>
+  <si>
+    <t>IV70000002</t>
+  </si>
+  <si>
+    <t>050.005-24.22680020</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001745</t>
+  </si>
+  <si>
+    <t>IV70000015</t>
+  </si>
+  <si>
+    <t>050.005-24.22680030</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001749</t>
+  </si>
+  <si>
+    <t>IV70000023</t>
+  </si>
+  <si>
+    <t>050.005-24.22680040</t>
+  </si>
+  <si>
+    <t>Offset By Document PV 24001759</t>
+  </si>
+  <si>
+    <t>PT.RENTOKIL INDONESIA</t>
+  </si>
+  <si>
+    <t>010.005-24.20897262</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1474,7 +1519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ55"/>
+  <dimension ref="A1:AZ60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8189,59 +8234,714 @@
       </c>
     </row>
     <row r="52" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>24001737</v>
+      </c>
+      <c r="D52">
+        <v>1201</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45348</v>
+      </c>
       <c r="F52" t="s">
         <v>200</v>
       </c>
       <c r="G52">
-        <v>171.94</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="H52">
-        <v>171.94</v>
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="I52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
       </c>
       <c r="L52" s="2">
-        <v>2716473</v>
+        <v>75955</v>
       </c>
       <c r="N52" s="2">
-        <v>2716473</v>
+        <v>75955</v>
+      </c>
+      <c r="O52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>56</v>
+      </c>
+      <c r="R52" t="s">
+        <v>57</v>
+      </c>
+      <c r="S52">
+        <v>15803</v>
+      </c>
+      <c r="T52" t="s">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>60</v>
+      </c>
+      <c r="W52" t="s">
+        <v>61</v>
+      </c>
+      <c r="X52">
+        <v>2105478</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI52">
+        <v>55229662</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>45287</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP52">
+        <v>1201</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>202</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX52">
+        <v>24001221</v>
+      </c>
+      <c r="AY52">
+        <v>920700</v>
+      </c>
+      <c r="AZ52">
+        <v>1201.9206999999999</v>
       </c>
     </row>
     <row r="53" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>24001742</v>
+      </c>
+      <c r="D53">
+        <v>1201</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45348</v>
+      </c>
       <c r="F53" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G53">
-        <v>171.94</v>
+        <v>6.04</v>
       </c>
       <c r="H53">
-        <v>171.94</v>
+        <v>6.04</v>
+      </c>
+      <c r="I53" t="s">
+        <v>55</v>
+      </c>
+      <c r="J53" t="s">
+        <v>55</v>
       </c>
       <c r="L53" s="2">
-        <v>2716473</v>
+        <v>95524</v>
       </c>
       <c r="N53" s="2">
-        <v>2716473</v>
+        <v>95524</v>
+      </c>
+      <c r="O53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R53" t="s">
+        <v>57</v>
+      </c>
+      <c r="S53">
+        <v>15803</v>
+      </c>
+      <c r="T53" t="s">
+        <v>58</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>60</v>
+      </c>
+      <c r="W53" t="s">
+        <v>61</v>
+      </c>
+      <c r="X53">
+        <v>2105494</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA53">
+        <v>1</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI53">
+        <v>55229662</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>45295</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP53">
+        <v>1201</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX53">
+        <v>24001262</v>
+      </c>
+      <c r="AY53">
+        <v>920700</v>
+      </c>
+      <c r="AZ53">
+        <v>1201.9206999999999</v>
       </c>
     </row>
     <row r="54" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>24001745</v>
+      </c>
+      <c r="D54">
+        <v>1201</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45348</v>
+      </c>
       <c r="F54" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G54">
-        <v>171.94</v>
+        <v>7.91</v>
       </c>
       <c r="H54">
-        <v>171.94</v>
+        <v>7.91</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" t="s">
+        <v>55</v>
       </c>
       <c r="L54" s="2">
-        <v>2716473</v>
+        <v>124960</v>
       </c>
       <c r="N54" s="2">
-        <v>2716473</v>
+        <v>124960</v>
+      </c>
+      <c r="O54" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>56</v>
+      </c>
+      <c r="R54" t="s">
+        <v>57</v>
+      </c>
+      <c r="S54">
+        <v>15803</v>
+      </c>
+      <c r="T54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>60</v>
+      </c>
+      <c r="W54" t="s">
+        <v>61</v>
+      </c>
+      <c r="X54">
+        <v>2105521</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI54">
+        <v>55229662</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>45300</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP54">
+        <v>1201</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX54">
+        <v>24001266</v>
+      </c>
+      <c r="AY54">
+        <v>920700</v>
+      </c>
+      <c r="AZ54">
+        <v>1201.9206999999999</v>
       </c>
     </row>
     <row r="55" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>24001749</v>
+      </c>
+      <c r="D55">
+        <v>1201</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45348</v>
+      </c>
       <c r="F55" t="s">
-        <v>203</v>
+        <v>209</v>
+      </c>
+      <c r="G55">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="H55">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="2">
+        <v>71472</v>
+      </c>
+      <c r="N55" s="2">
+        <v>71472</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>56</v>
+      </c>
+      <c r="R55" t="s">
+        <v>57</v>
+      </c>
+      <c r="S55">
+        <v>15803</v>
+      </c>
+      <c r="T55" t="s">
+        <v>58</v>
+      </c>
+      <c r="U55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V55" t="s">
+        <v>60</v>
+      </c>
+      <c r="W55" t="s">
+        <v>61</v>
+      </c>
+      <c r="X55">
+        <v>2105562</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI55">
+        <v>55229662</v>
+      </c>
+      <c r="AJ55" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>45301</v>
+      </c>
+      <c r="AN55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP55">
+        <v>1201</v>
+      </c>
+      <c r="AQ55" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>211</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX55">
+        <v>24001271</v>
+      </c>
+      <c r="AY55">
+        <v>920700</v>
+      </c>
+      <c r="AZ55">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>24001759</v>
+      </c>
+      <c r="D56">
+        <v>1201</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F56" t="s">
+        <v>212</v>
+      </c>
+      <c r="G56">
+        <v>11.6</v>
+      </c>
+      <c r="H56">
+        <v>11.6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+      <c r="J56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" s="2">
+        <v>183333</v>
+      </c>
+      <c r="N56" s="2">
+        <v>183333</v>
+      </c>
+      <c r="O56" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>56</v>
+      </c>
+      <c r="R56" t="s">
+        <v>57</v>
+      </c>
+      <c r="S56">
+        <v>15803</v>
+      </c>
+      <c r="T56" t="s">
+        <v>58</v>
+      </c>
+      <c r="U56" t="s">
+        <v>59</v>
+      </c>
+      <c r="V56" t="s">
+        <v>60</v>
+      </c>
+      <c r="W56" t="s">
+        <v>61</v>
+      </c>
+      <c r="X56">
+        <v>2105872</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>45349</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI56">
+        <v>55117880</v>
+      </c>
+      <c r="AJ56" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL56">
+        <v>24.208972620000001</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>45314</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP56">
+        <v>1201</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>214</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX56">
+        <v>24001254</v>
+      </c>
+      <c r="AY56">
+        <v>920700</v>
+      </c>
+      <c r="AZ56">
+        <v>1201.9206999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>215</v>
+      </c>
+      <c r="G57">
+        <v>206.82</v>
+      </c>
+      <c r="H57">
+        <v>206.82</v>
+      </c>
+      <c r="L57" s="2">
+        <v>3267717</v>
+      </c>
+      <c r="N57" s="2">
+        <v>3267717</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>216</v>
+      </c>
+      <c r="G58">
+        <v>206.82</v>
+      </c>
+      <c r="H58">
+        <v>206.82</v>
+      </c>
+      <c r="L58" s="2">
+        <v>3267717</v>
+      </c>
+      <c r="N58" s="2">
+        <v>3267717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>217</v>
+      </c>
+      <c r="G59">
+        <v>206.82</v>
+      </c>
+      <c r="H59">
+        <v>206.82</v>
+      </c>
+      <c r="L59" s="2">
+        <v>3267717</v>
+      </c>
+      <c r="N59" s="2">
+        <v>3267717</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
